--- a/AT Commands.xlsx
+++ b/AT Commands.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="26500" yWindow="-4080" windowWidth="18960" windowHeight="13800"/>
+    <workbookView xWindow="26505" yWindow="-4080" windowWidth="18960" windowHeight="13800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Bit Table 2" sheetId="6" r:id="rId6"/>
     <sheet name="User Variable Index" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1062,19 +1062,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="73.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="73.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="73.83203125" style="2"/>
+    <col min="1" max="1" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="73.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="56">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>51</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>95</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="56">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>118</v>
       </c>
@@ -1232,19 +1232,19 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="72.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1260,77 +1260,77 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>-52</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>-51</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>-50</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>30</v>
       </c>
@@ -1353,15 +1353,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1422,17 +1422,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="62.83203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="62.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -1579,21 +1579,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="23" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="25" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="25" customWidth="1"/>
     <col min="5" max="6" width="10" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="25"/>
+    <col min="7" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>53</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>0</v>
       </c>
@@ -1627,15 +1627,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="25">
-        <f>(2^A2)*C2</f>
+        <f t="shared" ref="E2:E33" si="0">(2^A2)*C2</f>
         <v>0</v>
       </c>
       <c r="F2" s="25">
-        <f>(2^A2)*D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <f t="shared" ref="F2:F33" si="1">(2^A2)*D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -1649,15 +1649,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="25">
-        <f>(2^A3)*C3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F3" s="25">
-        <f>(2^A3)*D3</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -1671,15 +1671,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="25">
-        <f>(2^A4)*C4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F4" s="25">
-        <f>(2^A4)*D4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -1693,15 +1693,15 @@
         <v>0</v>
       </c>
       <c r="E5" s="25">
-        <f>(2^A5)*C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="25">
-        <f>(2^A5)*D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -1715,15 +1715,15 @@
         <v>0</v>
       </c>
       <c r="E6" s="25">
-        <f>(2^A6)*C6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="25">
-        <f>(2^A6)*D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -1737,15 +1737,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="25">
-        <f>(2^A7)*C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="25">
-        <f>(2^A7)*D7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -1759,15 +1759,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="25">
-        <f>(2^A8)*C8</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="F8" s="25">
-        <f>(2^A8)*D8</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -1781,15 +1781,15 @@
         <v>0</v>
       </c>
       <c r="E9" s="25">
-        <f>(2^A9)*C9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="25">
-        <f>(2^A9)*D9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -1803,15 +1803,15 @@
         <v>0</v>
       </c>
       <c r="E10" s="25">
-        <f>(2^A10)*C10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="25">
-        <f>(2^A10)*D10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -1825,15 +1825,15 @@
         <v>0</v>
       </c>
       <c r="E11" s="25">
-        <f>(2^A11)*C11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="25">
-        <f>(2^A11)*D11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -1847,15 +1847,15 @@
         <v>0</v>
       </c>
       <c r="E12" s="25">
-        <f>(2^A12)*C12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="25">
-        <f>(2^A12)*D12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -1869,15 +1869,15 @@
         <v>0</v>
       </c>
       <c r="E13" s="25">
-        <f>(2^A13)*C13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="25">
-        <f>(2^A13)*D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>12</v>
       </c>
@@ -1891,15 +1891,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="25">
-        <f>(2^A14)*C14</f>
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
       <c r="F14" s="25">
-        <f>(2^A14)*D14</f>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -1913,15 +1913,15 @@
         <v>0</v>
       </c>
       <c r="E15" s="25">
-        <f>(2^A15)*C15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="25">
-        <f>(2^A15)*D15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -1935,15 +1935,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="25">
-        <f>(2^A16)*C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="25">
-        <f>(2^A16)*D16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -1957,15 +1957,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="25">
-        <f>(2^A17)*C17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="25">
-        <f>(2^A17)*D17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -1979,15 +1979,15 @@
         <v>0</v>
       </c>
       <c r="E18" s="25">
-        <f>(2^A18)*C18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="25">
-        <f>(2^A18)*D18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -2001,15 +2001,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="25">
-        <f>(2^A19)*C19</f>
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
       <c r="F19" s="25">
-        <f>(2^A19)*D19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -2023,15 +2023,15 @@
         <v>0</v>
       </c>
       <c r="E20" s="25">
-        <f>(2^A20)*C20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="25">
-        <f>(2^A20)*D20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -2045,15 +2045,15 @@
         <v>0</v>
       </c>
       <c r="E21" s="25">
-        <f>(2^A21)*C21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="25">
-        <f>(2^A21)*D21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -2067,15 +2067,15 @@
         <v>1</v>
       </c>
       <c r="E22" s="25">
-        <f>(2^A22)*C22</f>
+        <f t="shared" si="0"/>
         <v>1048576</v>
       </c>
       <c r="F22" s="25">
-        <f>(2^A22)*D22</f>
+        <f t="shared" si="1"/>
         <v>1048576</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -2089,15 +2089,15 @@
         <v>0</v>
       </c>
       <c r="E23" s="25">
-        <f>(2^A23)*C23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="25">
-        <f>(2^A23)*D23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -2111,15 +2111,15 @@
         <v>0</v>
       </c>
       <c r="E24" s="25">
-        <f>(2^A24)*C24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="25">
-        <f>(2^A24)*D24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -2133,15 +2133,15 @@
         <v>0</v>
       </c>
       <c r="E25" s="25">
-        <f>(2^A25)*C25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="25">
-        <f>(2^A25)*D25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>24</v>
       </c>
@@ -2152,15 +2152,15 @@
         <v>0</v>
       </c>
       <c r="E26" s="25">
-        <f>(2^A26)*C26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="25">
-        <f>(2^A26)*D26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>25</v>
       </c>
@@ -2171,15 +2171,15 @@
         <v>0</v>
       </c>
       <c r="E27" s="25">
-        <f>(2^A27)*C27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="25">
-        <f>(2^A27)*D27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>26</v>
       </c>
@@ -2193,15 +2193,15 @@
         <v>0</v>
       </c>
       <c r="E28" s="25">
-        <f>(2^A28)*C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="25">
-        <f>(2^A28)*D28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>27</v>
       </c>
@@ -2215,15 +2215,15 @@
         <v>0</v>
       </c>
       <c r="E29" s="25">
-        <f>(2^A29)*C29</f>
+        <f t="shared" si="0"/>
         <v>134217728</v>
       </c>
       <c r="F29" s="25">
-        <f>(2^A29)*D29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>28</v>
       </c>
@@ -2237,15 +2237,15 @@
         <v>0</v>
       </c>
       <c r="E30" s="25">
-        <f>(2^A30)*C30</f>
+        <f t="shared" si="0"/>
         <v>268435456</v>
       </c>
       <c r="F30" s="25">
-        <f>(2^A30)*D30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>29</v>
       </c>
@@ -2259,15 +2259,15 @@
         <v>0</v>
       </c>
       <c r="E31" s="25">
-        <f>(2^A31)*C31</f>
+        <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
       <c r="F31" s="25">
-        <f>(2^A31)*D31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>30</v>
       </c>
@@ -2281,15 +2281,15 @@
         <v>0</v>
       </c>
       <c r="E32" s="25">
-        <f>(2^A32)*C32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="25">
-        <f>(2^A32)*D32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>31</v>
       </c>
@@ -2303,15 +2303,15 @@
         <v>0</v>
       </c>
       <c r="E33" s="25">
-        <f>(2^A33)*C33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="25">
-        <f>(2^A33)*D33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E35" s="25">
         <f>SUM(E2:E33)</f>
         <v>940707910</v>
@@ -2335,20 +2335,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="51.83203125" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -3043,11 +3043,11 @@
         <v>2147483648</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E35" s="13">
         <f>SUM(E2:E33)</f>
         <v>2172715382</v>
@@ -3076,13 +3076,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>-300</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>-52</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>-51</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>-50</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>27</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>30</v>
       </c>
